--- a/DAW1.xlsx
+++ b/DAW1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template configuration" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="343">
   <si>
     <t xml:space="preserve">N/A 1</t>
   </si>
@@ -219,12 +219,21 @@
     <t xml:space="preserve">Toggle</t>
   </si>
   <si>
+    <t xml:space="preserve">0x78</t>
+  </si>
+  <si>
     <t xml:space="preserve">Continuous</t>
   </si>
   <si>
     <t xml:space="preserve">Unary</t>
   </si>
   <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jog</t>
   </si>
   <si>
@@ -234,9 +243,6 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mod</t>
   </si>
   <si>
@@ -259,9 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">OSCS - MIXER&gt;UNISON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
   </si>
   <si>
     <t xml:space="preserve">OSCS - MIXER(Osc 1)&gt;WAVEFORM</t>
@@ -2814,8 +2817,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2930,13 +2933,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>19</v>
@@ -2974,7 +2977,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3024,16 +3027,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>61</v>
@@ -3042,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
@@ -3074,16 +3077,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
@@ -3092,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
@@ -3124,10 +3127,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -3142,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3224,10 +3227,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -3310,7 +3313,7 @@
   </sheetPr>
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C150" activeCellId="0" sqref="C150"/>
     </sheetView>
   </sheetViews>
@@ -3338,10 +3341,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -3359,7 +3362,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>54</v>
@@ -3368,7 +3371,7 @@
         <v>55</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>56</v>
@@ -3398,13 +3401,13 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B2,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3435,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B2,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -3473,13 +3476,13 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B3,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3510,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L3" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B3,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -3547,13 +3550,13 @@
     </row>
     <row r="4" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B4,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3561,11 +3564,11 @@
       </c>
       <c r="E4" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B4,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B4,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B4,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -3577,7 +3580,7 @@
       </c>
       <c r="I4" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B4,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B4,Templates!$A$2:$I$1001, 8,0), "")</f>
@@ -3621,13 +3624,13 @@
     </row>
     <row r="5" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B5,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="E5" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B5,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B5,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B5,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -3651,7 +3654,7 @@
       </c>
       <c r="I5" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B5,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B5,Templates!$A$2:$I$1001, 8,0), "")</f>
@@ -3695,13 +3698,13 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B6,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3769,13 +3772,13 @@
     </row>
     <row r="7" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B7,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3806,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B7,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -3843,13 +3846,13 @@
     </row>
     <row r="8" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B8,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -3880,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B8,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -3917,17 +3920,17 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="str">
         <f aca="false">IFERROR(VLOOKUP($B9,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9" t="str">
         <f aca="false">IFERROR(VLOOKUP($B9,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -3991,17 +3994,17 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="str">
         <f aca="false">IFERROR(VLOOKUP($B10,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9" t="str">
         <f aca="false">IFERROR(VLOOKUP($B10,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" s="9" t="str">
         <f aca="false">IFERROR(VLOOKUP($B10,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4065,13 +4068,13 @@
     </row>
     <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B11,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4102,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B11,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4139,13 +4142,13 @@
     </row>
     <row r="12" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B12,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4176,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B12,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4213,13 +4216,13 @@
     </row>
     <row r="13" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B13,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4250,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B13,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4287,13 +4290,13 @@
     </row>
     <row r="14" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B14,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4324,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B14,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4361,13 +4364,13 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4375,11 +4378,11 @@
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="I15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B15,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4435,13 +4438,13 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4449,11 +4452,11 @@
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -4465,14 +4468,14 @@
       </c>
       <c r="I16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B16,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4509,13 +4512,13 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B17,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4583,13 +4586,13 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B18,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4620,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L18" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B18,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4657,13 +4660,13 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B19,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B19,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4731,17 +4734,17 @@
     </row>
     <row r="20" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B20,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B20,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B20,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4805,17 +4808,17 @@
     </row>
     <row r="21" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B21,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B21,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -4842,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B21,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4879,13 +4882,13 @@
     </row>
     <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B22,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B22,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -4953,13 +4956,13 @@
     </row>
     <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B23,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -4990,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L23" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B23,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5027,13 +5030,13 @@
     </row>
     <row r="24" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B24,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5101,13 +5104,13 @@
     </row>
     <row r="25" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B25,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5138,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B25,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5175,13 +5178,13 @@
     </row>
     <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5189,11 +5192,11 @@
       </c>
       <c r="E26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -5205,14 +5208,14 @@
       </c>
       <c r="I26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B26,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5249,13 +5252,13 @@
     </row>
     <row r="27" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5263,11 +5266,11 @@
       </c>
       <c r="E27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -5279,14 +5282,14 @@
       </c>
       <c r="I27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L27" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B27,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5323,13 +5326,13 @@
     </row>
     <row r="28" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B28,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5360,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B28,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5397,13 +5400,13 @@
     </row>
     <row r="29" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B29,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5434,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B29,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5471,13 +5474,13 @@
     </row>
     <row r="30" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B30,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5508,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B30,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5545,17 +5548,17 @@
     </row>
     <row r="31" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B31,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B31,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -5582,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L31" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B31,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5619,17 +5622,17 @@
     </row>
     <row r="32" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B32,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B32,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -5656,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L32" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B32,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5693,13 +5696,13 @@
     </row>
     <row r="33" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B33,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5730,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B33,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5767,13 +5770,13 @@
     </row>
     <row r="34" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B34,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5804,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B34,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5841,13 +5844,13 @@
     </row>
     <row r="35" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B35,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5878,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L35" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B35,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5915,13 +5918,13 @@
     </row>
     <row r="36" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B36,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -5952,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B36,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -5989,13 +5992,13 @@
     </row>
     <row r="37" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6003,11 +6006,11 @@
       </c>
       <c r="E37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -6019,14 +6022,14 @@
       </c>
       <c r="I37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L37" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B37,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6063,13 +6066,13 @@
     </row>
     <row r="38" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6077,11 +6080,11 @@
       </c>
       <c r="E38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -6093,14 +6096,14 @@
       </c>
       <c r="I38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L38" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B38,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6137,13 +6140,13 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D39" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B39,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6174,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L39" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B39,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6211,13 +6214,13 @@
     </row>
     <row r="40" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D40" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B40,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6248,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L40" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B40,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6285,13 +6288,13 @@
     </row>
     <row r="41" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B41,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6322,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L41" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B41,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6359,17 +6362,17 @@
     </row>
     <row r="42" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B42,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B42,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -6396,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L42" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B42,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6433,17 +6436,17 @@
     </row>
     <row r="43" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D43" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B43,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B43,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -6470,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L43" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B43,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6507,13 +6510,13 @@
     </row>
     <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D44" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B44,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6544,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L44" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B44,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6581,13 +6584,13 @@
     </row>
     <row r="45" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D45" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B45,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6618,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L45" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B45,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6655,13 +6658,13 @@
     </row>
     <row r="46" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D46" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B46,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6692,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L46" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B46,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6729,13 +6732,13 @@
     </row>
     <row r="47" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D47" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B47,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -6766,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L47" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B47,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -6803,17 +6806,17 @@
     </row>
     <row r="48" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D48" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B48,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B48,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -6877,17 +6880,17 @@
     </row>
     <row r="49" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D49" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B49,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B49,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -6951,17 +6954,17 @@
     </row>
     <row r="50" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D50" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B50,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B50,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7025,17 +7028,17 @@
     </row>
     <row r="51" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D51" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B51,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B51,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7099,17 +7102,17 @@
     </row>
     <row r="52" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D52" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B52,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B52,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7173,17 +7176,17 @@
     </row>
     <row r="53" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D53" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B53,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B53,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7247,17 +7250,17 @@
     </row>
     <row r="54" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D54" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B54,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B54,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7321,17 +7324,17 @@
     </row>
     <row r="55" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D55" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B55,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B55,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7395,17 +7398,17 @@
     </row>
     <row r="56" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D56" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B56,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B56,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7469,17 +7472,17 @@
     </row>
     <row r="57" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D57" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B57,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B57,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7543,17 +7546,17 @@
     </row>
     <row r="58" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D58" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B58,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B58,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -7617,13 +7620,13 @@
     </row>
     <row r="59" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D59" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B59,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -7654,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L59" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B59,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -7691,13 +7694,13 @@
     </row>
     <row r="60" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D60" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B60,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -7728,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L60" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B60,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -7765,13 +7768,13 @@
     </row>
     <row r="61" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D61" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B61,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -7802,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L61" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B61,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -7839,13 +7842,13 @@
     </row>
     <row r="62" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D62" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B62,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -7876,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L62" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B62,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -7913,13 +7916,13 @@
     </row>
     <row r="63" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B63,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -7950,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L63" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B63,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -7987,13 +7990,13 @@
     </row>
     <row r="64" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D64" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B64,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L64" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B64,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8061,13 +8064,13 @@
     </row>
     <row r="65" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D65" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B65,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8098,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L65" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B65,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8135,13 +8138,13 @@
     </row>
     <row r="66" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B66,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8172,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L66" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B66,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8209,13 +8212,13 @@
     </row>
     <row r="67" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D67" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B67,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8246,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L67" s="12" t="str">
         <f aca="false">IFERROR(VLOOKUP($B67,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8283,13 +8286,13 @@
     </row>
     <row r="68" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D68" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B68,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8320,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L68" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B68,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8357,13 +8360,13 @@
     </row>
     <row r="69" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D69" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B69,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8394,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L69" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B69,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8431,13 +8434,13 @@
     </row>
     <row r="70" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D70" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B70,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8468,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L70" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B70,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8505,13 +8508,13 @@
     </row>
     <row r="71" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D71" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B71,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8542,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L71" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B71,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8579,13 +8582,13 @@
     </row>
     <row r="72" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D72" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B72,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8616,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L72" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B72,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8653,13 +8656,13 @@
     </row>
     <row r="73" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D73" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B73,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8690,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L73" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B73,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8727,13 +8730,13 @@
     </row>
     <row r="74" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D74" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B74,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8764,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L74" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B74,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8801,13 +8804,13 @@
     </row>
     <row r="75" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D75" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B75,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8838,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L75" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B75,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8875,13 +8878,13 @@
     </row>
     <row r="76" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D76" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B76,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8912,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L76" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B76,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -8949,13 +8952,13 @@
     </row>
     <row r="77" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D77" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B77,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -8986,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L77" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B77,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9023,13 +9026,13 @@
     </row>
     <row r="78" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D78" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B78,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9060,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L78" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B78,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9097,13 +9100,13 @@
     </row>
     <row r="79" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D79" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B79,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9134,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L79" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B79,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9171,13 +9174,13 @@
     </row>
     <row r="80" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D80" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B80,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9208,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L80" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B80,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9245,13 +9248,13 @@
     </row>
     <row r="81" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D81" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B81,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9282,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L81" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B81,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9319,13 +9322,13 @@
     </row>
     <row r="82" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D82" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B82,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9356,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L82" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B82,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9393,13 +9396,13 @@
     </row>
     <row r="83" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D83" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B83,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9430,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L83" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B83,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9467,13 +9470,13 @@
     </row>
     <row r="84" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D84" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B84,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9541,13 +9544,13 @@
     </row>
     <row r="85" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D85" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B85,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9578,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L85" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B85,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9615,13 +9618,13 @@
     </row>
     <row r="86" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D86" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B86,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9652,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L86" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B86,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9689,13 +9692,13 @@
     </row>
     <row r="87" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D87" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B87,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9726,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L87" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B87,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9763,13 +9766,13 @@
     </row>
     <row r="88" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D88" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B88,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9800,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L88" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B88,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9837,13 +9840,13 @@
     </row>
     <row r="89" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D89" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B89,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9874,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L89" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B89,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9911,13 +9914,13 @@
     </row>
     <row r="90" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D90" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B90,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -9948,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L90" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B90,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -9985,13 +9988,13 @@
     </row>
     <row r="91" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D91" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B91,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10022,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L91" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B91,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10059,13 +10062,13 @@
     </row>
     <row r="92" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D92" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B92,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10096,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L92" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B92,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10133,13 +10136,13 @@
     </row>
     <row r="93" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D93" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B93,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10170,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L93" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B93,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10207,13 +10210,13 @@
     </row>
     <row r="94" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D94" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B94,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10244,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L94" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B94,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10281,13 +10284,13 @@
     </row>
     <row r="95" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D95" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B95,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10318,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L95" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B95,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10355,13 +10358,13 @@
     </row>
     <row r="96" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D96" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B96,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10392,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L96" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B96,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10429,13 +10432,13 @@
     </row>
     <row r="97" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B97" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D97" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B97,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10466,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L97" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B97,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10503,13 +10506,13 @@
     </row>
     <row r="98" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D98" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B98,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10540,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L98" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B98,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10577,13 +10580,13 @@
     </row>
     <row r="99" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D99" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B99,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10614,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L99" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B99,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10651,13 +10654,13 @@
     </row>
     <row r="100" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D100" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B100,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10688,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L100" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B100,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10725,13 +10728,13 @@
     </row>
     <row r="101" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D101" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B101,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10762,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L101" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B101,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10799,13 +10802,13 @@
     </row>
     <row r="102" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D102" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B102,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10873,13 +10876,13 @@
     </row>
     <row r="103" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B103" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D103" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B103,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10910,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L103" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B103,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -10947,13 +10950,13 @@
     </row>
     <row r="104" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D104" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B104,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -10984,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L104" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B104,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -11021,13 +11024,13 @@
     </row>
     <row r="105" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D105" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B105,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -11058,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L105" s="23" t="str">
         <f aca="false">IFERROR(VLOOKUP($B105,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -11095,17 +11098,17 @@
     </row>
     <row r="106" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D106" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B106,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B106,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11169,17 +11172,17 @@
     </row>
     <row r="107" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D107" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B107,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B107,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11243,17 +11246,17 @@
     </row>
     <row r="108" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D108" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B108,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B108,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11317,17 +11320,17 @@
     </row>
     <row r="109" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D109" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B109,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B109,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11391,17 +11394,17 @@
     </row>
     <row r="110" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D110" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B110,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B110,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11465,17 +11468,17 @@
     </row>
     <row r="111" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D111" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B111,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B111,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11539,17 +11542,17 @@
     </row>
     <row r="112" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D112" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B112,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B112,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11613,17 +11616,17 @@
     </row>
     <row r="113" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D113" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B113,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B113,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -11687,13 +11690,13 @@
     </row>
     <row r="114" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B114" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D114" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B114,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -11724,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L114" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B114,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -11761,13 +11764,13 @@
     </row>
     <row r="115" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B115" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B115,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -11798,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L115" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B115,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -11835,13 +11838,13 @@
     </row>
     <row r="116" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B116" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D116" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B116,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -11872,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L116" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B116,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -11909,13 +11912,13 @@
     </row>
     <row r="117" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B117" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D117" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B117,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -11946,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L117" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B117,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -11983,13 +11986,13 @@
     </row>
     <row r="118" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B118" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D118" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B118,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12020,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L118" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B118,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12057,13 +12060,13 @@
     </row>
     <row r="119" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B119" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D119" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B119,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12094,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L119" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B119,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12131,13 +12134,13 @@
     </row>
     <row r="120" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B120" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D120" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B120,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12168,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L120" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B120,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12205,13 +12208,13 @@
     </row>
     <row r="121" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B121" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D121" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B121,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12242,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L121" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B121,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12279,13 +12282,13 @@
     </row>
     <row r="122" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B122" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D122" s="25" t="str">
         <f aca="false">IFERROR(VLOOKUP($B122,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12353,13 +12356,13 @@
     </row>
     <row r="123" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B123,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12390,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L123" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B123,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12427,13 +12430,13 @@
     </row>
     <row r="124" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D124" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B124,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12441,15 +12444,15 @@
       </c>
       <c r="E124" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B124,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F124" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B124,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G124" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B124,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H124" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B124,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -12464,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L124" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B124,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12501,13 +12504,13 @@
     </row>
     <row r="125" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D125" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B125,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12515,15 +12518,15 @@
       </c>
       <c r="E125" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B125,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F125" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B125,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G125" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B125,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H125" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B125,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -12538,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L125" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B125,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12575,17 +12578,17 @@
     </row>
     <row r="126" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D126" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B126,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B126,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -12612,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L126" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B126,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12649,13 +12652,13 @@
     </row>
     <row r="127" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D127" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B127,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12663,15 +12666,15 @@
       </c>
       <c r="E127" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B127,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F127" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B127,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G127" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B127,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H127" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B127,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -12686,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L127" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B127,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12723,13 +12726,13 @@
     </row>
     <row r="128" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B128" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D128" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B128,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12737,15 +12740,15 @@
       </c>
       <c r="E128" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B128,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F128" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B128,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G128" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B128,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H128" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B128,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -12760,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L128" s="27" t="str">
         <f aca="false">IFERROR(VLOOKUP($B128,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12797,17 +12800,17 @@
     </row>
     <row r="129" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D129" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B129,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B129,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -12871,13 +12874,13 @@
     </row>
     <row r="130" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D130" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B130,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12885,15 +12888,15 @@
       </c>
       <c r="E130" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B130,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F130" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B130,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G130" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B130,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H130" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B130,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -12908,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L130" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B130,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -12945,13 +12948,13 @@
     </row>
     <row r="131" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D131" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B131,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -12959,15 +12962,15 @@
       </c>
       <c r="E131" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B131,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F131" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B131,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G131" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B131,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H131" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B131,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -12982,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L131" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B131,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13019,13 +13022,13 @@
     </row>
     <row r="132" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13033,11 +13036,11 @@
       </c>
       <c r="E132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -13049,14 +13052,14 @@
       </c>
       <c r="I132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001, 8,0), "")</f>
         <v>0</v>
       </c>
       <c r="K132" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L132" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B132,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13093,13 +13096,13 @@
     </row>
     <row r="133" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D133" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B133,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13107,15 +13110,15 @@
       </c>
       <c r="E133" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B133,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F133" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B133,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G133" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B133,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H133" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B133,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -13130,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L133" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B133,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13167,13 +13170,13 @@
     </row>
     <row r="134" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D134" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B134,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13181,15 +13184,15 @@
       </c>
       <c r="E134" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B134,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F134" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B134,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G134" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B134,Templates!$A$2:$I$1001,5,0), "")</f>
-        <v>0x70</v>
+        <v>0x78</v>
       </c>
       <c r="H134" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B134,Templates!$A$2:$I$1001,6,0), "")</f>
@@ -13204,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L134" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B134,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13241,13 +13244,13 @@
     </row>
     <row r="135" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D135" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B135,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13278,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L135" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B135,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13315,7 +13318,7 @@
     </row>
     <row r="136" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>60</v>
@@ -13352,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L136" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B136,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13389,13 +13392,13 @@
     </row>
     <row r="137" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D137" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B137,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13426,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L137" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B137,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13463,13 +13466,13 @@
     </row>
     <row r="138" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D138" s="31" t="str">
         <f aca="false">IFERROR(VLOOKUP($B138,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13537,13 +13540,13 @@
     </row>
     <row r="139" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D139" s="31" t="str">
         <f aca="false">IFERROR(VLOOKUP($B139,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13574,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L139" s="31" t="str">
         <f aca="false">IFERROR(VLOOKUP($B139,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -13611,13 +13614,13 @@
     </row>
     <row r="140" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D140" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B140,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13685,13 +13688,13 @@
     </row>
     <row r="141" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D141" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B141,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13759,13 +13762,13 @@
     </row>
     <row r="142" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D142" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B142,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13773,11 +13776,11 @@
       </c>
       <c r="E142" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B142,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F142" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B142,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="G142" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B142,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -13789,7 +13792,7 @@
       </c>
       <c r="I142" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B142,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J142" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B142,Templates!$A$2:$I$1001, 8,0), "")</f>
@@ -13833,13 +13836,13 @@
     </row>
     <row r="143" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D143" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B143,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -13847,11 +13850,11 @@
       </c>
       <c r="E143" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B143,Templates!$A$2:$I$1001,3,0), "")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F143" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B143,Templates!$A$2:$I$1001,4,0), "")</f>
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="G143" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B143,Templates!$A$2:$I$1001,5,0), "")</f>
@@ -13863,7 +13866,7 @@
       </c>
       <c r="I143" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B143,Templates!$A$2:$I$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J143" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B143,Templates!$A$2:$I$1001, 8,0), "")</f>
@@ -13907,17 +13910,17 @@
     </row>
     <row r="144" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D144" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B144,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B144,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -13981,17 +13984,17 @@
     </row>
     <row r="145" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D145" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B145,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B145,Templates!$A$2:$I$1001,3,0), "")</f>
@@ -14055,13 +14058,13 @@
     </row>
     <row r="146" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D146" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B146,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -14092,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L146" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B146,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -14129,13 +14132,13 @@
     </row>
     <row r="147" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B147" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D147" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B147,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -14203,13 +14206,13 @@
     </row>
     <row r="148" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D148" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B148,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -14277,13 +14280,13 @@
     </row>
     <row r="149" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B149" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D149" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B149,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -14314,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L149" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B149,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -14351,13 +14354,13 @@
     </row>
     <row r="150" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B150" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D150" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B150,Templates!$A$2:$I$1001,2,0), "")</f>
@@ -14388,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L150" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B150,Templates!$A$2:$I$1001, 9,0), "")</f>
@@ -14425,17 +14428,17 @@
     </row>
     <row r="151" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D151" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B151,Templates!$A$2:$I$1001,2,0), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B151,Templates!$A$2:$I$1001,3,0), "")</f>

--- a/DAW1.xlsx
+++ b/DAW1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template configuration" sheetId="1" state="visible" r:id="rId3"/>
@@ -2817,7 +2817,7 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3313,8 +3313,8 @@
   </sheetPr>
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C150" activeCellId="0" sqref="C150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DAW1.xlsx
+++ b/DAW1.xlsx
@@ -2844,7 +2844,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3003,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -3119,43 +3119,43 @@
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="I2" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B2,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="str">
         <f aca="false">IFERROR(VLOOKUP($B2,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="I6" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B6,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B6,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="I7" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B7,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B7,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="I8" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B8,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B8,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="I12" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B12,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B12,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="I13" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B13,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B13,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I17" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B17,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J17" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B17,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="I18" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B18,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J18" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B18,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="I19" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B19,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J19" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B19,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I23" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B23,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B23,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="I24" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B24,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J24" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B24,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="I28" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B28,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B28,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="I29" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B29,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B29,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="I30" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B30,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B30,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="I34" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B34,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B34,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="I35" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B35,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP($B35,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="I39" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B39,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J39" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B39,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="I40" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B40,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J40" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B40,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="I41" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B41,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J41" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B41,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="I45" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B45,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J45" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B45,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="I46" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B46,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J46" s="10" t="str">
         <f aca="false">IFERROR(VLOOKUP($B46,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I59" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B59,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J59" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B59,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="I60" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B60,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J60" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B60,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="I61" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B61,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J61" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B61,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="I62" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B62,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J62" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B62,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="I63" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B63,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J63" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B63,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="I64" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B64,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J64" s="14" t="str">
         <f aca="false">IFERROR(VLOOKUP($B64,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="I68" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B68,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J68" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B68,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="I69" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B69,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J69" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B69,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="I70" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B70,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J70" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B70,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="I71" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B71,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J71" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B71,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="I72" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B72,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J72" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B72,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="I73" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B73,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J73" s="16" t="str">
         <f aca="false">IFERROR(VLOOKUP($B73,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="I77" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B77,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J77" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B77,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="I78" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B78,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J78" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B78,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="I81" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B81,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J81" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B81,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="I82" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B82,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J82" s="20" t="str">
         <f aca="false">IFERROR(VLOOKUP($B82,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="I85" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B85,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J85" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B85,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="I86" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B86,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J86" s="18" t="str">
         <f aca="false">IFERROR(VLOOKUP($B86,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="I89" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B89,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J89" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B89,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="I90" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B90,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J90" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B90,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="I91" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B91,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J91" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B91,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="I92" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B92,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J92" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B92,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I93" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B93,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J93" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B93,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="I94" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B94,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J94" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B94,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="I95" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B95,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J95" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B95,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="I96" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B96,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J96" s="22" t="str">
         <f aca="false">IFERROR(VLOOKUP($B96,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="I123" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B123,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J123" s="29" t="str">
         <f aca="false">IFERROR(VLOOKUP($B123,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="I135" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B135,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J135" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B135,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I137" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B137,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J137" s="33" t="str">
         <f aca="false">IFERROR(VLOOKUP($B137,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="I138" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B138,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J138" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B138,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="I139" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B139,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J139" s="35" t="str">
         <f aca="false">IFERROR(VLOOKUP($B139,Templates!$A$2:$H$1001, 8,0), "")</f>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I140" s="37" t="str">
         <f aca="false">IFERROR(VLOOKUP($B140,Templates!$A$2:$H$1001, 7,0), "")</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J140" s="37" t="str">
         <f aca="false">IFERROR(VLOOKUP($B140,Templates!$A$2:$H$1001, 8,0), "")</f>

--- a/DAW1.xlsx
+++ b/DAW1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template configuration" sheetId="1" state="visible" r:id="rId3"/>
@@ -1939,8 +1939,8 @@
   </sheetPr>
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3167,7 +3167,7 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +3567,7 @@
   </sheetPr>
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="726" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
@@ -3575,7 +3575,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="29.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.33"/>
